--- a/Gibrary.xlsx
+++ b/Gibrary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a91a0630785a210/デスクトップ/IT/Gibrary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="11_AD4D066CA252ABDACC10487B91D0C28272EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46EDBB65-25EE-489D-B170-45A233DD0492}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="11_AD4D066CA252ABDACC10487B91D0C28272EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C9B8698-3F27-4D73-86B6-AD3D2F53BE4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>User</t>
     <phoneticPr fontId="1"/>
@@ -87,25 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT
-UPDATE
-SELECT(single)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT
-UPDATE
-DELETE
-SELECT(single)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT
-DELETE
-SELECT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CLIENT TYPE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,21 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT
-UPDATE
-DELETE
-SELECT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SERVER API</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SERVER DB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>converter</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,6 +148,393 @@
   </si>
   <si>
     <t>sqls.go</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id 
+name
+email
+birthday
+gender
+is_active
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT
+VARCHAR(30)
+VARCHAR(50)
+DATE
+VARCHAR(6)
+BOOLEAN
+DATETIME
+DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id 
+name
+introduce
+max_people
+group_key
+is_opened
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT
+VARCHAR(25)
+TEXT
+INT
+CHAR(32)
+BOOLEAN
+DATETIME
+DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+user
+groupy
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT
+INT
+INT
+DATETIME
+DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT
+VARCHAR(10)
+DATETIME
+DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+category
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+typ
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+type
+category
+title
+detail
+applicants
+is_opened
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT
+INT
+INT
+VARCHAR(30)
+TEXT
+INT
+BOOLEAN
+DATETIME
+DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+groupy
+board_item
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+user
+board_item
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+detail
+is_opened
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT
+TEXT
+BOOLEAN
+DATETIME
+DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+user
+groupy
+home_item
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT
+INT
+INT
+INT
+DATETIME
+DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID
+Name
+Email
+Birthday
+Gender
+Is_active
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+string
+string
+string
+string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+string
+string
+string
+string
+string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID
+Name
+Introduce
+Max_people
+Group_key
+Is_opened
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID
+User
+Groupy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+string
+string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID
+Type
+Category
+Title
+Detail
+Applicants
+Is_opened
+Created_at
+Updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+string
+string
+string
+string
+string
+string
+string
+string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID
+Groupy
+BoardItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID
+User
+BoardItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID
+User
+Groupy
+BoardItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+string
+string
+string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID
+Detail
+BoardItem
+Created_at
+Updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERVER API(jsons)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー参照時以外のクエリで使用する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERVER API(externals)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+User
+Groupy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID
+Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID
+Category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+Type
+Category
+string
+string
+string
+string
+string
+string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+Groupy
+BoardItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+User
+BoardItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string
+User
+Groupy
+BoardItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Options</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+is_opened
+lang
+switch_color
+created_at
+updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT
+BOOLEAN
+VARCHAR(6)
+CHAR(5)
+DATETIME
+DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserOptions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id
+user
+option
+created_at
+updated_at</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -189,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +566,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -228,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -251,11 +612,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -266,9 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,7 +883,125 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,18 +1283,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85678BD5-4E4C-42BA-8B52-CBABCD34F97B}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="31" width="17.8984375" customWidth="1"/>
+    <col min="1" max="26" width="24" customWidth="1"/>
+    <col min="27" max="33" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -579,24 +1305,30 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="D1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -605,25 +1337,23 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="54">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="37.200000000000003" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -632,25 +1362,37 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="72">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="144">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -659,25 +1401,37 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="54">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="144">
       <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -686,25 +1440,37 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="90">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -713,25 +1479,37 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="72">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -740,25 +1518,37 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="72">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="72">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -767,25 +1557,37 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" ht="54">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="162">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -794,25 +1596,37 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="54">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="90">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -821,25 +1635,37 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="72">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="90">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -848,23 +1674,37 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="90">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -873,21 +1713,37 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="108">
       <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -896,21 +1752,29 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="108">
       <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -919,21 +1783,29 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="90">
       <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -942,21 +1814,23 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -965,21 +1839,23 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -988,21 +1864,23 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1011,21 +1889,23 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1034,21 +1914,23 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1057,21 +1939,23 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1080,21 +1964,23 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1103,21 +1989,23 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1126,21 +2014,23 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1149,19 +2039,23 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="18.600000000000001" thickBot="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1170,12 +2064,40 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1183,101 +2105,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="27" width="15.796875" customWidth="1"/>
+    <col min="1" max="28" width="17.796875" customWidth="1"/>
+    <col min="29" max="29" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1290,7 +2348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FC501F-F7C6-4F55-A113-E9C4BBA43FDF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
